--- a/Fortran code/Fortran_bcs_pin_ettore/Record/record 5-16-2018.xlsx
+++ b/Fortran code/Fortran_bcs_pin_ettore/Record/record 5-16-2018.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32856CFC-733D-4E9A-A61D-B655707FDC61}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DBDAFE3-E503-4C2E-AE88-28441D06767A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15388,16 +15388,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16050,8 +16050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ED192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY123" sqref="AY123"/>
+    <sheetView tabSelected="1" topLeftCell="BG7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BY32" sqref="BY32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Fortran code/Fortran_bcs_pin_ettore/Record/record 5-16-2018.xlsx
+++ b/Fortran code/Fortran_bcs_pin_ettore/Record/record 5-16-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DBDAFE3-E503-4C2E-AE88-28441D06767A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA6F9C-9B76-4B67-9B7A-C28C089FE104}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -16050,8 +16050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ED192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BY32" sqref="BY32"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BM42" sqref="BM42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16063,6 +16063,7 @@
     <col min="40" max="40" width="9.875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.125" customWidth="1"/>
     <col min="46" max="46" width="9.5" customWidth="1"/>
+    <col min="65" max="65" width="9.25" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24686,7 +24687,7 @@
         <v>0.148811750486986</v>
       </c>
       <c r="BM40" s="7">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(BM36:BM39)</f>
         <v>0.15674717711949274</v>
       </c>
       <c r="BN40" s="7">
